--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559FBBA1-CBF1-4EFD-A579-657FE2A5F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A6B0EC-1671-44B4-B749-3329917EBC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1252,6 +1252,45 @@
     <t>Uedaが往くRE:</t>
     <rPh sb="5" eb="6">
       <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵は5~8種類をランダムで出現</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス+サブは特定キャラを使う</t>
+    <rPh sb="6" eb="8">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撃破時、確率でお金/アイテムを落とす</t>
+    <rPh sb="0" eb="3">
+      <t>ゲキハジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4279,8 +4318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="1419225"/>
-          <a:ext cx="2390774" cy="4000500"/>
+          <a:off x="1216959" y="1405218"/>
+          <a:ext cx="2381809" cy="3952875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4323,14 +4362,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4345,8 +4384,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219199" y="2009774"/>
-          <a:ext cx="2390775" cy="428625"/>
+          <a:off x="1216958" y="2413186"/>
+          <a:ext cx="2381810" cy="423022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4410,14 +4449,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142877</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4432,8 +4471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1514477" y="1971674"/>
-          <a:ext cx="1238248" cy="438150"/>
+          <a:off x="1509995" y="2375086"/>
+          <a:ext cx="1233765" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4480,14 +4519,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4502,8 +4541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1514475" y="2457450"/>
-          <a:ext cx="781050" cy="438150"/>
+          <a:off x="1509993" y="2855259"/>
+          <a:ext cx="778808" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4550,14 +4589,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>21852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4572,8 +4611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1514475" y="2924175"/>
-          <a:ext cx="1219200" cy="438150"/>
+          <a:off x="1509993" y="3316381"/>
+          <a:ext cx="1216958" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4619,15 +4658,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>168648</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>221877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18489</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4642,8 +4681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1495425" y="3409950"/>
-          <a:ext cx="1219200" cy="438150"/>
+          <a:off x="1535766" y="1869142"/>
+          <a:ext cx="1216958" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4679,7 +4718,7 @@
               <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>アチーブ</a:t>
+            <a:t>クエスト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13584,6 +13623,606 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFB447F-2FD8-48CF-A6B4-D18686FB6BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="8924925"/>
+          <a:ext cx="857250" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584947</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>137272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6539F8CB-C0D1-4ECA-BDB6-C3F1801B41C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="11696700"/>
+          <a:ext cx="8109697" cy="4633072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>595688</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>157205</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="グループ化 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A973B815-7719-41A4-A4C5-63C7959F1954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="809625" y="11915775"/>
+          <a:ext cx="4586663" cy="385805"/>
+          <a:chOff x="9601200" y="4048125"/>
+          <a:chExt cx="4586663" cy="385805"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5370E9-9E94-4D9F-9064-97DD1CF2EEF8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9620191" y="4048125"/>
+            <a:ext cx="4567672" cy="141148"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930FCF5B-6BA7-425A-983E-DF6EB03D496B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9610695" y="4302193"/>
+            <a:ext cx="3342663" cy="131737"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB288BA-F573-47D8-809F-55A0F581EDF7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9601200" y="4048125"/>
+            <a:ext cx="4282787" cy="150557"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CC3232"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECA24BE-BB33-4E28-A9D0-9AFBA6E2D38C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9601200" y="4302193"/>
+            <a:ext cx="1338965" cy="131737"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B28C7E-7B48-486D-8CA1-9A719EAB7C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3152776" y="14678025"/>
+          <a:ext cx="533400" cy="1114425"/>
+          <a:chOff x="10277475" y="12563475"/>
+          <a:chExt cx="876300" cy="2124075"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5443F23-C151-442E-804E-315BCBF07DBB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10277475" y="12830175"/>
+            <a:ext cx="876300" cy="1857375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315143B2-0268-4D7F-956B-DAD6B953CE02}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10458450" y="12563475"/>
+            <a:ext cx="504825" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C93FD540-DB95-42DF-9CC0-BD71F9C2CE89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="15487649"/>
+          <a:ext cx="714375" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13886,7 +14525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DAC5F3-7BC8-4898-959B-36C85F174347}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -14469,7 +15108,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD741EE-11FB-4356-A0E9-E278EF0D2BD5}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14681,69 +15320,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="15" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="15" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C52" t="s">
-        <v>89</v>
+      <c r="B52" t="s">
+        <v>28</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
-        <v>3</v>
+      <c r="C55" t="s">
+        <v>90</v>
       </c>
       <c r="I55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
       <c r="I56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I57" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -14752,12 +15392,8 @@
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
@@ -14766,9 +15402,11 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B63" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
@@ -14777,7 +15415,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B64" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -14788,7 +15426,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -14799,7 +15437,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -14809,34 +15447,45 @@
       <c r="H66" s="13"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B67" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
+      <c r="B67" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B69" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D69" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -15130,7 +15779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0372970-5ABB-4A52-87AA-61F0A635B536}">
   <dimension ref="A2:A74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -15164,9 +15815,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7D438-400E-42E5-BE5A-7930654CD85F}">
-  <dimension ref="A2:A26"/>
+  <dimension ref="A2:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -15178,6 +15831,11 @@
     <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P51" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A6B0EC-1671-44B4-B749-3329917EBC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4F42B2-27BB-4EA8-94A5-7D6F53925B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="3510" yWindow="825" windowWidth="21600" windowHeight="13980" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
     <sheet name="仕様" sheetId="1" r:id="rId2"/>
     <sheet name="武器、アイテム詳細" sheetId="7" r:id="rId3"/>
-    <sheet name="画面遷移" sheetId="6" r:id="rId4"/>
-    <sheet name="タイトル画面" sheetId="9" r:id="rId5"/>
-    <sheet name="メニュー画面" sheetId="8" r:id="rId6"/>
-    <sheet name="プレイ画面" sheetId="10" r:id="rId7"/>
+    <sheet name="アニメーション" sheetId="11" r:id="rId4"/>
+    <sheet name="画面遷移" sheetId="6" r:id="rId5"/>
+    <sheet name="タイトル画面" sheetId="9" r:id="rId6"/>
+    <sheet name="メニュー画面" sheetId="8" r:id="rId7"/>
+    <sheet name="プレイ画面" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="155">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1292,6 +1293,90 @@
     <rPh sb="15" eb="16">
       <t>オ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラは基本的にプレイヤーの後ろを追従する</t>
+    <rPh sb="4" eb="7">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StandIdle</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>FightIdle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walk </t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Kick</t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション名</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加済み</t>
+    <rPh sb="0" eb="3">
+      <t>ツイカズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Punch1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Punch2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Punch3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GrabEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GrabOneHandWeapon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GrabTwoHandWeapon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Down</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1579,7 +1664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1689,6 +1774,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14525,7 +14613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DAC5F3-7BC8-4898-959B-36C85F174347}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15735,6 +15823,108 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF554A40-543E-48B5-9DE6-05257CD1ECC5}">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FBB15D-7D1E-4981-A647-E23BCCE0AE76}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15748,7 +15938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88110D7-F331-4811-A82A-C7AC33090918}">
   <dimension ref="A2:A26"/>
   <sheetViews>
@@ -15775,11 +15965,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0372970-5ABB-4A52-87AA-61F0A635B536}">
   <dimension ref="A2:A74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -15813,19 +16003,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7D438-400E-42E5-BE5A-7930654CD85F}">
   <dimension ref="A2:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
@@ -15841,6 +16036,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4F42B2-27BB-4EA8-94A5-7D6F53925B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0A44C-8634-4C39-B3BB-A40C52462EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="825" windowWidth="21600" windowHeight="13980" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="60" yWindow="-13245" windowWidth="25230" windowHeight="11295" firstSheet="1" activeTab="3" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="176">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1313,25 +1313,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>StandIdle</t>
-  </si>
-  <si>
     <t>〇</t>
-  </si>
-  <si>
-    <t>FightIdle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walk </t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Kick</t>
-  </si>
-  <si>
-    <t>Avoid</t>
   </si>
   <si>
     <t>〇</t>
@@ -1352,31 +1334,193 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Punch1</t>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Punch2</t>
+    <t>構え</t>
+    <rPh sb="0" eb="1">
+      <t>カマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Punch3</t>
+    <t>歩き</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GrabEnemy</t>
+    <t>走り</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GrabOneHandWeapon</t>
+    <t xml:space="preserve">walk </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GrabTwoHandWeapon</t>
+    <t>run</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Down</t>
+    <t>パンチ1コンボ目</t>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンチ2コンボ目</t>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンチ3コンボ目</t>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転キック</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常キック</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵をつかむ</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒れる</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>avoid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片手武器</t>
+    <rPh sb="0" eb="4">
+      <t>カタテブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両手武器</t>
+    <rPh sb="0" eb="2">
+      <t>リョウテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構えながら歩く</t>
+    <rPh sb="0" eb="1">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>punch_strong</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kick_round</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Idle_stand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Idle_fight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>walk_fight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>punch1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>punch2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grab_Enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grab_oneHandWeapon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grab_twoHandWeapon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kick_heat</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1788,8 +1932,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF000000"/>
       <color rgb="FFCC3232"/>
-      <color rgb="FF000000"/>
       <color rgb="FFE9A5A5"/>
       <color rgb="FFF9E7E7"/>
       <color rgb="FFDF7B7B"/>
@@ -13330,16 +13474,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13354,7 +13498,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257676" y="3095625"/>
+          <a:off x="3667126" y="3067050"/>
           <a:ext cx="857250" cy="1762125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -14311,6 +14455,475 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1020A0-1286-49B4-915E-B15C2E2110BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="3829050"/>
+          <a:ext cx="1533525" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A53EC4C-EBCC-449E-B021-EA5026B0588D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257299" y="4333875"/>
+          <a:ext cx="695325" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51068FC-F9A7-48CC-8480-AEECD41D9820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724526" y="2381250"/>
+          <a:ext cx="857250" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CC3232"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="楕円 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05876AB0-1BAE-4CD6-B7FE-3C5B54DDFEC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="8420100"/>
+          <a:ext cx="857250" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CC3232"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="グループ化 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC99D6C-752C-460A-98E8-6507603C47F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5467349" y="8143875"/>
+          <a:ext cx="676275" cy="161925"/>
+          <a:chOff x="2876550" y="1866900"/>
+          <a:chExt cx="4586663" cy="385805"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F10019F-698F-4B2A-8833-45E161134708}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2895541" y="1866900"/>
+            <a:ext cx="4567672" cy="141148"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCCE743-CFA3-456B-80DE-34BC55312F29}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2876550" y="1866900"/>
+            <a:ext cx="4282787" cy="150557"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CC3232"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="二等辺三角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CC2A4C-97CF-49DF-8CAB-4F98EE808F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5991225" y="1952624"/>
+          <a:ext cx="323850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14613,7 +15226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DAC5F3-7BC8-4898-959B-36C85F174347}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15824,13 +16437,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF554A40-543E-48B5-9DE6-05257CD1ECC5}">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.4">
@@ -15838,84 +16454,163 @@
         <v>137</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>138</v>
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>140</v>
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>139</v>
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>149</v>
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>150</v>
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>143</v>
+        <v>164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>151</v>
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>152</v>
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>144</v>
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -15969,7 +16664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0372970-5ABB-4A52-87AA-61F0A635B536}">
   <dimension ref="A2:A74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -16007,9 +16702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7D438-400E-42E5-BE5A-7930654CD85F}">
   <dimension ref="A2:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0A44C-8634-4C39-B3BB-A40C52462EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968847BF-5DA1-443E-B777-E4B490701409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-13245" windowWidth="25230" windowHeight="11295" firstSheet="1" activeTab="3" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
     <sheet name="仕様" sheetId="1" r:id="rId2"/>
-    <sheet name="武器、アイテム詳細" sheetId="7" r:id="rId3"/>
-    <sheet name="アニメーション" sheetId="11" r:id="rId4"/>
-    <sheet name="画面遷移" sheetId="6" r:id="rId5"/>
-    <sheet name="タイトル画面" sheetId="9" r:id="rId6"/>
-    <sheet name="メニュー画面" sheetId="8" r:id="rId7"/>
-    <sheet name="プレイ画面" sheetId="10" r:id="rId8"/>
+    <sheet name="必要素材" sheetId="12" r:id="rId3"/>
+    <sheet name="武器、アイテム詳細" sheetId="7" r:id="rId4"/>
+    <sheet name="アニメーション" sheetId="11" r:id="rId5"/>
+    <sheet name="画面遷移" sheetId="6" r:id="rId6"/>
+    <sheet name="タイトル画面" sheetId="9" r:id="rId7"/>
+    <sheet name="メニュー画面" sheetId="8" r:id="rId8"/>
+    <sheet name="プレイ画面" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="187">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1521,6 +1522,95 @@
   </si>
   <si>
     <t>kick_heat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動時SE</t>
+    <rPh sb="0" eb="3">
+      <t>イドウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃時SE</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトル開始時SE</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利SE</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敗北SE</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE素材</t>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー開いたときのSE</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル時のSE</t>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定のSE</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル移動時のSE</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品展示会:2/6、7</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テンジカイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1808,7 +1898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1922,6 +2012,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15226,7 +15322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DAC5F3-7BC8-4898-959B-36C85F174347}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15400,6 +15496,9 @@
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
@@ -15811,7 +15910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD741EE-11FB-4356-A0E9-E278EF0D2BD5}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -16196,6 +16295,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E1F196-9326-49F0-B2D8-998D7AD6DACB}">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="38"/>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="38"/>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="38"/>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="38"/>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="38"/>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="38"/>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="38"/>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="38"/>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C3CCD4-4262-4912-9632-1F9086FCB23F}">
   <dimension ref="A2:G35"/>
   <sheetViews>
@@ -16435,11 +16608,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF554A40-543E-48B5-9DE6-05257CD1ECC5}">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -16619,7 +16792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FBB15D-7D1E-4981-A647-E23BCCE0AE76}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16633,7 +16806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88110D7-F331-4811-A82A-C7AC33090918}">
   <dimension ref="A2:A26"/>
   <sheetViews>
@@ -16660,7 +16833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0372970-5ABB-4A52-87AA-61F0A635B536}">
   <dimension ref="A2:A74"/>
   <sheetViews>
@@ -16698,7 +16871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7D438-400E-42E5-BE5A-7930654CD85F}">
   <dimension ref="A2:P51"/>
   <sheetViews>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968847BF-5DA1-443E-B777-E4B490701409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27835706-4B27-4B4C-88AF-5F1C3488B9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="188">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1610,6 +1610,13 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>テンジカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自販機</t>
+    <rPh sb="0" eb="3">
+      <t>ジハンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -15322,7 +15329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DAC5F3-7BC8-4898-959B-36C85F174347}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15910,7 +15917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD741EE-11FB-4356-A0E9-E278EF0D2BD5}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -15985,72 +15994,75 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>77</v>
       </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>92</v>
       </c>
@@ -16372,7 +16384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C3CCD4-4262-4912-9632-1F9086FCB23F}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27835706-4B27-4B4C-88AF-5F1C3488B9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372C721C-86DA-4CFB-99B8-1AD1FD3E1A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="191">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1392,13 +1392,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回転キック</t>
-    <rPh sb="0" eb="2">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通常キック</t>
     <rPh sb="0" eb="2">
       <t>ツウジョウ</t>
@@ -1485,10 +1478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kick_round</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Idle_stand</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1619,6 +1608,25 @@
       <t>ジハンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技キック</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unityからオブジェクトのデータを持ってくる</t>
+  </si>
+  <si>
+    <t>ID、オブジェクトの種類(片手とか両手とか),座標,回転率,サイズ</t>
+  </si>
+  <si>
+    <t>プレイヤーの近くにあるモデルのIDを取得する</t>
+  </si>
+  <si>
+    <t>モデルのIDのものを手に持つ</t>
   </si>
 </sst>
 </file>
@@ -15329,7 +15337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DAC5F3-7BC8-4898-959B-36C85F174347}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15505,7 +15513,7 @@
         <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
@@ -15917,8 +15925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD741EE-11FB-4356-A0E9-E278EF0D2BD5}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16059,7 +16067,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -16067,72 +16075,84 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>66</v>
       </c>
+      <c r="I40" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>65</v>
       </c>
+      <c r="I41" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>64</v>
       </c>
+      <c r="I42" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>94</v>
       </c>
+      <c r="I43" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>133</v>
       </c>
@@ -16311,67 +16331,67 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="38"/>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="38"/>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="38"/>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="38"/>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="38"/>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="38"/>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="38"/>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="38"/>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -16626,9 +16646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF554A40-543E-48B5-9DE6-05257CD1ECC5}">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16649,7 +16667,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>142</v>
@@ -16660,7 +16678,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>143</v>
@@ -16668,10 +16686,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -16698,7 +16716,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>148</v>
@@ -16706,7 +16724,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
         <v>149</v>
@@ -16714,7 +16732,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
         <v>150</v>
@@ -16725,34 +16743,34 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
         <v>139</v>
@@ -16760,44 +16778,44 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372C721C-86DA-4CFB-99B8-1AD1FD3E1A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94CE93-1ABC-4808-9F54-D860F0040458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="193">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1453,13 +1453,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>必殺技</t>
-    <rPh sb="0" eb="3">
-      <t>ヒッサツワザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>構えながら歩く</t>
     <rPh sb="0" eb="1">
       <t>カマ</t>
@@ -1627,6 +1620,24 @@
   </si>
   <si>
     <t>モデルのIDのものを手に持つ</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kick_round</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転蹴り</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -15337,7 +15348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DAC5F3-7BC8-4898-959B-36C85F174347}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15513,7 +15524,7 @@
         <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
@@ -15925,7 +15936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD741EE-11FB-4356-A0E9-E278EF0D2BD5}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -16067,7 +16078,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -16105,7 +16116,7 @@
         <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -16113,7 +16124,7 @@
         <v>65</v>
       </c>
       <c r="I41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -16121,7 +16132,7 @@
         <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -16129,7 +16140,7 @@
         <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -16330,68 +16341,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E1F196-9326-49F0-B2D8-998D7AD6DACB}">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="38"/>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="38"/>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="38"/>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="38"/>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="38"/>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="38"/>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="38"/>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="38"/>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -16405,7 +16414,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B40"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16644,9 +16653,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF554A40-543E-48B5-9DE6-05257CD1ECC5}">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16667,7 +16676,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>142</v>
@@ -16678,7 +16687,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>143</v>
@@ -16686,10 +16695,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -16716,7 +16728,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>148</v>
@@ -16724,7 +16736,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>149</v>
@@ -16732,7 +16744,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>150</v>
@@ -16743,79 +16755,246 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
         <v>151</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>192</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>170</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
         <v>171</v>
       </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C38" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -16842,9 +17021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88110D7-F331-4811-A82A-C7AC33090918}">
   <dimension ref="A2:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -16869,9 +17046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0372970-5ABB-4A52-87AA-61F0A635B536}">
   <dimension ref="A2:A74"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10710"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94CE93-1ABC-4808-9F54-D860F0040458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{AF94CE93-1ABC-4808-9F54-D860F0040458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C7C2A7-CB04-7A4A-A8DC-847FC4B319D6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="メニュー画面" sheetId="8" r:id="rId8"/>
     <sheet name="プレイ画面" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="200">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1622,10 +1624,6 @@
     <t>モデルのIDのものを手に持つ</t>
   </si>
   <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>kick_round</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1638,6 +1636,27 @@
       <t>ケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemy1</t>
+  </si>
+  <si>
+    <t>Enemy2</t>
+  </si>
+  <si>
+    <t>パンチ</t>
+  </si>
+  <si>
+    <t>通常キック</t>
+  </si>
+  <si>
+    <t>grab_player</t>
+  </si>
+  <si>
+    <t>倒れる</t>
+  </si>
+  <si>
+    <t>プレイヤーをつかむ</t>
   </si>
 </sst>
 </file>
@@ -15350,17 +15369,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -15390,7 +15409,7 @@
       </c>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -15420,7 +15439,7 @@
       </c>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>8</v>
       </c>
@@ -15450,7 +15469,7 @@
       </c>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>15</v>
       </c>
@@ -15480,7 +15499,7 @@
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>22</v>
       </c>
@@ -15506,7 +15525,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>29</v>
       </c>
@@ -15519,7 +15538,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -15527,7 +15546,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
@@ -15550,7 +15569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="7">
@@ -15569,7 +15588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <v>6</v>
       </c>
@@ -15592,7 +15611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <v>13</v>
       </c>
@@ -15615,7 +15634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <v>20</v>
       </c>
@@ -15638,7 +15657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
         <v>27</v>
       </c>
@@ -15657,12 +15676,12 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
@@ -15685,7 +15704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -15698,7 +15717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
         <v>3</v>
       </c>
@@ -15721,7 +15740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
         <v>10</v>
       </c>
@@ -15744,7 +15763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
         <v>17</v>
       </c>
@@ -15767,7 +15786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
         <v>24</v>
       </c>
@@ -15790,12 +15809,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>43</v>
       </c>
@@ -15818,7 +15837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="11">
         <v>1</v>
       </c>
@@ -15841,7 +15860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="11">
         <v>8</v>
       </c>
@@ -15864,7 +15883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="11">
         <v>15</v>
       </c>
@@ -15887,7 +15906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="11">
         <v>22</v>
       </c>
@@ -15910,7 +15929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <v>29</v>
       </c>
@@ -15940,24 +15959,24 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -15965,7 +15984,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -15973,107 +15992,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>77</v>
       </c>
@@ -16081,37 +16100,37 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>66</v>
       </c>
@@ -16119,7 +16138,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>65</v>
       </c>
@@ -16127,7 +16146,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -16135,7 +16154,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>94</v>
       </c>
@@ -16143,42 +16162,42 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>28</v>
       </c>
@@ -16186,7 +16205,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>89</v>
       </c>
@@ -16194,7 +16213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>88</v>
       </c>
@@ -16202,7 +16221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>90</v>
       </c>
@@ -16210,7 +16229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>3</v>
       </c>
@@ -16218,12 +16237,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="13" t="s">
         <v>18</v>
       </c>
@@ -16234,7 +16253,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -16243,7 +16262,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
         <v>39</v>
       </c>
@@ -16256,7 +16275,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="13" t="s">
         <v>36</v>
       </c>
@@ -16267,7 +16286,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
         <v>40</v>
       </c>
@@ -16278,7 +16297,7 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
         <v>41</v>
       </c>
@@ -16289,7 +16308,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="13" t="s">
         <v>37</v>
       </c>
@@ -16300,7 +16319,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="16" t="s">
         <v>30</v>
       </c>
@@ -16315,7 +16334,7 @@
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="13" t="s">
         <v>31</v>
       </c>
@@ -16343,61 +16362,61 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="38"/>
       <c r="C3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="38"/>
       <c r="C4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="C7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="38"/>
       <c r="C9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="38"/>
       <c r="C10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="38"/>
       <c r="C11" t="s">
         <v>182</v>
@@ -16417,19 +16436,19 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.05078125" customWidth="1"/>
+    <col min="3" max="3" width="9.4375" customWidth="1"/>
+    <col min="5" max="5" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>120</v>
       </c>
@@ -16440,7 +16459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
@@ -16451,7 +16470,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="33"/>
       <c r="C6" s="27" t="s">
         <v>99</v>
@@ -16460,7 +16479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>118</v>
       </c>
@@ -16471,25 +16490,25 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="34"/>
       <c r="C8" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="34"/>
       <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
       <c r="C10" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>119</v>
       </c>
@@ -16497,55 +16516,55 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="34"/>
       <c r="C12" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
       <c r="C13" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="29"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
       <c r="C26" s="20" t="s">
         <v>103</v>
@@ -16558,7 +16577,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="24" t="s">
         <v>101</v>
@@ -16572,7 +16591,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="32"/>
       <c r="C28" s="31"/>
       <c r="D28" s="30"/>
@@ -16581,7 +16600,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="23"/>
       <c r="C29" s="25"/>
       <c r="D29" s="27"/>
@@ -16590,7 +16609,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>27</v>
       </c>
@@ -16601,7 +16620,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="23"/>
       <c r="C31" s="25"/>
       <c r="D31" s="27"/>
@@ -16609,7 +16628,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>25</v>
       </c>
@@ -16619,7 +16638,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="23"/>
       <c r="C33" s="25"/>
       <c r="D33" s="27"/>
@@ -16627,7 +16646,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>26</v>
       </c>
@@ -16637,7 +16656,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="23"/>
       <c r="C35" s="25"/>
       <c r="D35" s="27"/>
@@ -16653,17 +16672,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF554A40-543E-48B5-9DE6-05257CD1ECC5}">
-  <dimension ref="A2:D38"/>
+  <dimension ref="A2:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>137</v>
       </c>
@@ -16674,7 +16695,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>164</v>
       </c>
@@ -16685,7 +16706,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -16693,7 +16714,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>166</v>
       </c>
@@ -16704,7 +16725,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>146</v>
       </c>
@@ -16715,7 +16736,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>147</v>
       </c>
@@ -16726,7 +16747,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>167</v>
       </c>
@@ -16734,7 +16755,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>168</v>
       </c>
@@ -16742,7 +16763,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>162</v>
       </c>
@@ -16753,7 +16774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>163</v>
       </c>
@@ -16764,18 +16785,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
         <v>191</v>
-      </c>
-      <c r="C12" t="s">
-        <v>192</v>
       </c>
       <c r="D12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>172</v>
       </c>
@@ -16786,7 +16807,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>156</v>
       </c>
@@ -16794,7 +16815,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>157</v>
       </c>
@@ -16805,7 +16826,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>158</v>
       </c>
@@ -16813,7 +16834,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>169</v>
       </c>
@@ -16821,7 +16842,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>170</v>
       </c>
@@ -16829,7 +16850,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>171</v>
       </c>
@@ -16837,9 +16858,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>140</v>
@@ -16848,7 +16869,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>164</v>
       </c>
@@ -16859,15 +16880,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>165</v>
       </c>
       <c r="C24" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>166</v>
       </c>
@@ -16878,7 +16902,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>146</v>
       </c>
@@ -16889,7 +16913,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>147</v>
       </c>
@@ -16900,100 +16924,227 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>156</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C46" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>157</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C47" t="s">
         <v>154</v>
       </c>
-      <c r="D34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>158</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C48" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
+      <c r="D48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>170</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C50" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>171</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C51" t="s">
         <v>160</v>
       </c>
     </row>
@@ -17009,7 +17160,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17023,14 +17174,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>128</v>
       </c>
@@ -17048,24 +17199,24 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="35" t="s">
         <v>131</v>
       </c>
@@ -17084,24 +17235,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P51" t="s">
         <v>135</v>
       </c>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10710"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{AF94CE93-1ABC-4808-9F54-D860F0040458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C7C2A7-CB04-7A4A-A8DC-847FC4B319D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66845142-93CB-49A0-8D46-D7ADFB98AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="199">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -15369,17 +15369,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -15409,7 +15409,7 @@
       </c>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -15439,7 +15439,7 @@
       </c>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="5">
         <v>8</v>
       </c>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="5">
         <v>15</v>
       </c>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <v>22</v>
       </c>
@@ -15525,7 +15525,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
         <v>29</v>
       </c>
@@ -15538,7 +15538,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="7">
@@ -15588,7 +15588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="7">
         <v>6</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="7">
         <v>13</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="7">
         <v>20</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="8">
         <v>27</v>
       </c>
@@ -15676,12 +15676,12 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -15717,7 +15717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="8">
         <v>3</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="8">
         <v>10</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="8">
         <v>17</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="8">
         <v>24</v>
       </c>
@@ -15809,12 +15809,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>43</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="11">
         <v>1</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="11">
         <v>8</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="11">
         <v>15</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="11">
         <v>22</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="12">
         <v>29</v>
       </c>
@@ -15959,24 +15959,24 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -15992,107 +15992,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>77</v>
       </c>
@@ -16100,37 +16100,37 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>66</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>65</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>94</v>
       </c>
@@ -16162,42 +16162,42 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>28</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>89</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
         <v>88</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
         <v>90</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>3</v>
       </c>
@@ -16237,12 +16237,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B61" s="13" t="s">
         <v>18</v>
       </c>
@@ -16253,7 +16253,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -16262,7 +16262,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B63" s="13" t="s">
         <v>39</v>
       </c>
@@ -16275,7 +16275,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B64" s="13" t="s">
         <v>36</v>
       </c>
@@ -16286,7 +16286,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="13" t="s">
         <v>40</v>
       </c>
@@ -16297,7 +16297,7 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="13" t="s">
         <v>41</v>
       </c>
@@ -16308,7 +16308,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="13" t="s">
         <v>37</v>
       </c>
@@ -16319,7 +16319,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="16" t="s">
         <v>30</v>
       </c>
@@ -16334,7 +16334,7 @@
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="13" t="s">
         <v>31</v>
       </c>
@@ -16362,61 +16362,61 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="38"/>
       <c r="C3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="38"/>
       <c r="C4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="38"/>
       <c r="C5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="38"/>
       <c r="C6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="38"/>
       <c r="C7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="38"/>
       <c r="C9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="38"/>
       <c r="C10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="38"/>
       <c r="C11" t="s">
         <v>182</v>
@@ -16436,19 +16436,19 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.05078125" customWidth="1"/>
-    <col min="3" max="3" width="9.4375" customWidth="1"/>
-    <col min="5" max="5" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="24" t="s">
         <v>120</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="33"/>
       <c r="C6" s="27" t="s">
         <v>99</v>
@@ -16479,7 +16479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="24" t="s">
         <v>118</v>
       </c>
@@ -16490,25 +16490,25 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="34"/>
       <c r="C8" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="34"/>
       <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="34" t="s">
         <v>119</v>
       </c>
@@ -16516,55 +16516,55 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="34"/>
       <c r="C12" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="33"/>
       <c r="C13" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="29"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" s="19"/>
       <c r="C26" s="20" t="s">
         <v>103</v>
@@ -16577,7 +16577,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="24" t="s">
         <v>101</v>
@@ -16591,7 +16591,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B28" s="32"/>
       <c r="C28" s="31"/>
       <c r="D28" s="30"/>
@@ -16600,7 +16600,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B29" s="23"/>
       <c r="C29" s="25"/>
       <c r="D29" s="27"/>
@@ -16609,7 +16609,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B30" s="24" t="s">
         <v>27</v>
       </c>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B31" s="23"/>
       <c r="C31" s="25"/>
       <c r="D31" s="27"/>
@@ -16628,7 +16628,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B32" s="24" t="s">
         <v>25</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="23"/>
       <c r="C33" s="25"/>
       <c r="D33" s="27"/>
@@ -16646,7 +16646,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="24" t="s">
         <v>26</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="23"/>
       <c r="C35" s="25"/>
       <c r="D35" s="27"/>
@@ -16674,17 +16674,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF554A40-543E-48B5-9DE6-05257CD1ECC5}">
   <dimension ref="A2:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="22.1875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
         <v>137</v>
       </c>
@@ -16695,7 +16693,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>164</v>
       </c>
@@ -16706,7 +16704,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -16714,7 +16712,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>166</v>
       </c>
@@ -16725,7 +16723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>146</v>
       </c>
@@ -16736,7 +16734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>147</v>
       </c>
@@ -16747,7 +16745,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>167</v>
       </c>
@@ -16755,7 +16753,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>168</v>
       </c>
@@ -16763,7 +16761,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>162</v>
       </c>
@@ -16774,7 +16772,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>163</v>
       </c>
@@ -16785,7 +16783,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>190</v>
       </c>
@@ -16796,7 +16794,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>172</v>
       </c>
@@ -16807,7 +16805,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>156</v>
       </c>
@@ -16815,7 +16813,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>157</v>
       </c>
@@ -16826,7 +16824,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>158</v>
       </c>
@@ -16834,7 +16832,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>169</v>
       </c>
@@ -16842,7 +16840,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>170</v>
       </c>
@@ -16850,7 +16848,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>171</v>
       </c>
@@ -16858,7 +16856,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
         <v>192</v>
       </c>
@@ -16869,7 +16867,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>164</v>
       </c>
@@ -16880,7 +16878,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>165</v>
       </c>
@@ -16891,7 +16889,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>166</v>
       </c>
@@ -16902,7 +16900,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>146</v>
       </c>
@@ -16913,7 +16911,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>147</v>
       </c>
@@ -16924,7 +16922,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>162</v>
       </c>
@@ -16935,7 +16933,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>163</v>
       </c>
@@ -16946,7 +16944,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>156</v>
       </c>
@@ -16957,7 +16955,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>157</v>
       </c>
@@ -16968,7 +16966,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>158</v>
       </c>
@@ -16979,7 +16977,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>196</v>
       </c>
@@ -16987,7 +16985,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>170</v>
       </c>
@@ -16995,7 +16993,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>171</v>
       </c>
@@ -17003,7 +17001,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="15" t="s">
         <v>193</v>
       </c>
@@ -17014,7 +17012,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>164</v>
       </c>
@@ -17025,7 +17023,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>165</v>
       </c>
@@ -17036,7 +17034,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>166</v>
       </c>
@@ -17047,7 +17045,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>146</v>
       </c>
@@ -17058,7 +17056,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>147</v>
       </c>
@@ -17069,7 +17067,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>167</v>
       </c>
@@ -17080,7 +17078,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>163</v>
       </c>
@@ -17091,7 +17089,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>156</v>
       </c>
@@ -17102,7 +17100,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>157</v>
       </c>
@@ -17113,7 +17111,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>158</v>
       </c>
@@ -17124,7 +17122,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>196</v>
       </c>
@@ -17132,7 +17130,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>170</v>
       </c>
@@ -17140,7 +17138,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>171</v>
       </c>
@@ -17160,7 +17158,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17174,14 +17172,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
         <v>128</v>
       </c>
@@ -17199,24 +17197,24 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="35" t="s">
         <v>131</v>
       </c>
@@ -17235,24 +17233,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P51" t="s">
         <v>135</v>
       </c>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66845142-93CB-49A0-8D46-D7ADFB98AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A075AC3-DC36-4D2E-964E-9F817CF48E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="-45" yWindow="-13605" windowWidth="19125" windowHeight="12900" firstSheet="2" activeTab="7" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
@@ -35,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="215">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1657,6 +1655,102 @@
   </si>
   <si>
     <t>プレイヤーをつかむ</t>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択カーソル</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲージバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材名</t>
+    <rPh sb="0" eb="3">
+      <t>ソザイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトル開始</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お金部分</t>
+    <rPh sb="1" eb="2">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作説明</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c60000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ba2020</t>
+  </si>
+  <si>
+    <t>濃い目</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彩度低め</t>
+    <rPh sb="0" eb="2">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5031,85 +5125,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>168648</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>221877</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>18489</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>183777</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B23E4D-5DF5-454E-96EE-450BCE13827C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1535766" y="1869142"/>
-          <a:ext cx="1216958" cy="432547"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>クエスト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>12326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5124,8 +5148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1533525" y="3867150"/>
-          <a:ext cx="885825" cy="438150"/>
+          <a:off x="1529043" y="3777502"/>
+          <a:ext cx="883583" cy="432548"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5171,15 +5195,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>112619</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>73399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5194,8 +5218,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1495425" y="4305300"/>
-          <a:ext cx="1971675" cy="438150"/>
+          <a:off x="1479737" y="4579845"/>
+          <a:ext cx="1964951" cy="435348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13293,6 +13317,76 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121583</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>191620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E0C1B8-37CE-44DD-B882-075C96657E58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1488701" y="4192120"/>
+          <a:ext cx="1111063" cy="432548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>セーブ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16358,68 +16452,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E1F196-9326-49F0-B2D8-998D7AD6DACB}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
       <c r="B3" s="38"/>
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
       <c r="B4" s="38"/>
-      <c r="C4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
       <c r="B5" s="38"/>
-      <c r="C5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
       <c r="B6" s="38"/>
-      <c r="C6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
       <c r="B7" s="38"/>
-      <c r="C7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
       <c r="B9" s="38"/>
-      <c r="C9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
       <c r="B10" s="38"/>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
       <c r="B11" s="38"/>
-      <c r="C11" t="s">
-        <v>182</v>
+    </row>
+    <row r="16" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -16674,7 +16847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF554A40-543E-48B5-9DE6-05257CD1ECC5}">
   <dimension ref="A2:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -17195,7 +17368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0372970-5ABB-4A52-87AA-61F0A635B536}">
   <dimension ref="A2:A74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A075AC3-DC36-4D2E-964E-9F817CF48E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDE87EC-2173-4825-BAAE-CDFADCC638D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-13605" windowWidth="19125" windowHeight="12900" firstSheet="2" activeTab="7" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="218">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1104,31 +1104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回復アイテムは最大10個、強化アイテムは最大5個まで所持できる</t>
-    <rPh sb="0" eb="2">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キョウカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>片手武器</t>
     <rPh sb="0" eb="2">
       <t>カタテ</t>
@@ -1749,6 +1724,30 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP回復</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大HPの1/3回復</t>
+  </si>
+  <si>
+    <t>最大HPの1/2回復</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP全回復</t>
+    <rPh sb="2" eb="3">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2037,7 +2036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2157,6 +2156,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15589,7 +15594,7 @@
         <v>55</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M7" s="5"/>
     </row>
@@ -15637,7 +15642,7 @@
         <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
@@ -16057,12 +16062,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -16075,7 +16080,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -16191,7 +16196,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -16229,7 +16234,7 @@
         <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -16237,7 +16242,7 @@
         <v>65</v>
       </c>
       <c r="I41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -16245,7 +16250,7 @@
         <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -16253,7 +16258,7 @@
         <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -16278,12 +16283,12 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
@@ -16296,7 +16301,7 @@
         <v>28</v>
       </c>
       <c r="I52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -16465,134 +16470,134 @@
   <sheetData>
     <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="38"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="38"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="38"/>
     </row>
     <row r="16" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" t="s">
         <v>204</v>
       </c>
-      <c r="B17" t="s">
-        <v>205</v>
-      </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -16603,11 +16608,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C3CCD4-4262-4912-9632-1F9086FCB23F}">
-  <dimension ref="A2:G35"/>
+  <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16623,7 +16626,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>79</v>
@@ -16654,7 +16657,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>16</v>
@@ -16683,7 +16686,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>97</v>
@@ -16703,7 +16706,7 @@
     </row>
     <row r="15" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -16752,88 +16755,111 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
-      <c r="B27" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" t="s">
-        <v>117</v>
+      <c r="B27" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="41" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B28" s="32"/>
       <c r="C28" s="31"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="E28" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B29" s="23"/>
       <c r="C29" s="25"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="E29" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B30" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="32"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="23"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="24" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="23"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="4" t="s">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="23"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="24" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="24" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="23"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="33" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="23"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="24" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="24" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="23"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="33" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="23"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="33" t="s">
         <v>116</v>
       </c>
     </row>
@@ -16857,466 +16883,466 @@
   <sheetData>
     <row r="2" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>140</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
         <v>190</v>
       </c>
-      <c r="C12" t="s">
-        <v>191</v>
-      </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -17349,12 +17375,12 @@
   <sheetData>
     <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -17368,7 +17394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0372970-5ABB-4A52-87AA-61F0A635B536}">
   <dimension ref="A2:A74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -17376,22 +17402,22 @@
   <sheetData>
     <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -17417,7 +17443,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
@@ -17427,7 +17453,7 @@
     </row>
     <row r="51" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDE87EC-2173-4825-BAAE-CDFADCC638D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B5BBBF-8C40-47E3-9E40-1BEE6F85BD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="3405" yWindow="-15120" windowWidth="21600" windowHeight="13905" firstSheet="1" activeTab="1" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="213">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -187,26 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>防御力</t>
-    <rPh sb="0" eb="2">
-      <t>ボウギョ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用できるアイテムの追加</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃力アップ</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -217,13 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>防御力アップ</t>
-    <rPh sb="0" eb="3">
-      <t>ボウギョリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヒートゲージ回復</t>
     <rPh sb="6" eb="8">
       <t>カイフク</t>
@@ -1087,20 +1060,6 @@
   </si>
   <si>
     <t>15秒間攻撃力が2倍になる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15秒間防御力が2倍になる</t>
-    <rPh sb="4" eb="6">
-      <t>ボウギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30秒間防御力が1.5倍になる</t>
-    <rPh sb="4" eb="6">
-      <t>ボウギョ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2036,7 +1995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2161,6 +2120,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15466,7 +15428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DAC5F3-7BC8-4898-959B-36C85F174347}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15475,36 +15437,36 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M4" s="5"/>
     </row>
@@ -15531,10 +15493,10 @@
         <v>7</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M5" s="5"/>
     </row>
@@ -15561,10 +15523,10 @@
         <v>14</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M6" s="5"/>
     </row>
@@ -15591,10 +15553,10 @@
         <v>21</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M7" s="5"/>
     </row>
@@ -15639,33 +15601,33 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
@@ -15777,30 +15739,30 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -15910,30 +15872,30 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -16054,20 +16016,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD741EE-11FB-4356-A0E9-E278EF0D2BD5}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -16080,7 +16042,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -16093,17 +16055,17 @@
     </row>
     <row r="7" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -16113,167 +16075,167 @@
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -16283,30 +16245,30 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I53" t="s">
         <v>20</v>
@@ -16314,7 +16276,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
@@ -16322,7 +16284,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
@@ -16331,14 +16293,6 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>3</v>
-      </c>
-      <c r="I56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I57" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -16363,10 +16317,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B63" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -16376,7 +16330,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B64" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -16387,7 +16341,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -16398,7 +16352,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -16409,7 +16363,7 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -16420,13 +16374,13 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -16435,13 +16389,13 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
@@ -16470,134 +16424,134 @@
   <sheetData>
     <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B5" s="38"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B6" s="38"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B11" s="38"/>
     </row>
     <row r="16" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" t="s">
         <v>204</v>
-      </c>
-      <c r="D17" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -16608,9 +16562,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C3CCD4-4262-4912-9632-1F9086FCB23F}">
-  <dimension ref="A2:G38"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16621,18 +16577,18 @@
   <sheetData>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -16640,30 +16596,30 @@
         <v>13</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="33"/>
       <c r="C6" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -16686,10 +16642,10 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -16706,7 +16662,7 @@
     </row>
     <row r="15" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -16736,32 +16692,32 @@
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E24" s="29"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" s="19"/>
       <c r="C26" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="28"/>
       <c r="E27" s="41" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -16769,7 +16725,7 @@
       <c r="C28" s="31"/>
       <c r="D28" s="30"/>
       <c r="E28" s="41" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -16778,18 +16734,18 @@
       <c r="C29" s="25"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B30" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -16798,7 +16754,7 @@
       <c r="C31" s="31"/>
       <c r="D31" s="30"/>
       <c r="E31" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -16806,17 +16762,17 @@
       <c r="C32" s="25"/>
       <c r="D32" s="27"/>
       <c r="E32" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="28"/>
       <c r="E33" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
@@ -16824,17 +16780,17 @@
       <c r="C34" s="25"/>
       <c r="D34" s="27"/>
       <c r="E34" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="28"/>
       <c r="E35" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
@@ -16842,26 +16798,26 @@
       <c r="C36" s="25"/>
       <c r="D36" s="27"/>
       <c r="E36" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="24" t="s">
-        <v>115</v>
-      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="23"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="33" t="s">
-        <v>116</v>
-      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -16873,7 +16829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF554A40-543E-48B5-9DE6-05257CD1ECC5}">
   <dimension ref="A2:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16883,471 +16839,472 @@
   <sheetData>
     <row r="2" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17375,12 +17332,12 @@
   <sheetData>
     <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -17394,7 +17351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0372970-5ABB-4A52-87AA-61F0A635B536}">
   <dimension ref="A2:A74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -17402,22 +17359,22 @@
   <sheetData>
     <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="35" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -17432,28 +17389,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7D438-400E-42E5-BE5A-7930654CD85F}">
   <dimension ref="A2:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P51" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B5BBBF-8C40-47E3-9E40-1BEE6F85BD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A8D85-AA97-4863-B18F-1C516FA44EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="-15120" windowWidth="21600" windowHeight="13905" firstSheet="1" activeTab="1" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="213">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -16016,7 +16016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD741EE-11FB-4356-A0E9-E278EF0D2BD5}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
@@ -16413,9 +16413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E1F196-9326-49F0-B2D8-998D7AD6DACB}">
   <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16511,6 +16509,9 @@
       <c r="A19" t="s">
         <v>195</v>
       </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
       <c r="D19" t="s">
         <v>206</v>
       </c>
@@ -16538,16 +16539,25 @@
       <c r="A22" t="s">
         <v>200</v>
       </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>201</v>
       </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>202</v>
       </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
@@ -16557,6 +16567,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/仕様書/Uedaが往くRE_仕様書.xlsx
+++ b/仕様書/Uedaが往くRE_仕様書.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A8D85-AA97-4863-B18F-1C516FA44EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91855A41-96CD-4405-8558-583EF729D16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
+    <workbookView xWindow="6795" yWindow="1230" windowWidth="21600" windowHeight="13935" firstSheet="1" activeTab="2" xr2:uid="{842EA52D-1D42-43CA-BE0F-291E813BBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="5" r:id="rId1"/>
     <sheet name="仕様" sheetId="1" r:id="rId2"/>
-    <sheet name="必要素材" sheetId="12" r:id="rId3"/>
-    <sheet name="武器、アイテム詳細" sheetId="7" r:id="rId4"/>
-    <sheet name="アニメーション" sheetId="11" r:id="rId5"/>
-    <sheet name="画面遷移" sheetId="6" r:id="rId6"/>
-    <sheet name="タイトル画面" sheetId="9" r:id="rId7"/>
-    <sheet name="メニュー画面" sheetId="8" r:id="rId8"/>
-    <sheet name="プレイ画面" sheetId="10" r:id="rId9"/>
+    <sheet name="クレジット" sheetId="13" r:id="rId3"/>
+    <sheet name="必要素材" sheetId="12" r:id="rId4"/>
+    <sheet name="武器、アイテム詳細" sheetId="7" r:id="rId5"/>
+    <sheet name="アニメーション" sheetId="11" r:id="rId6"/>
+    <sheet name="画面遷移" sheetId="6" r:id="rId7"/>
+    <sheet name="タイトル画面" sheetId="9" r:id="rId8"/>
+    <sheet name="メニュー画面" sheetId="8" r:id="rId9"/>
+    <sheet name="プレイ画面" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="222">
   <si>
     <t>金の総資産額によって強さが変わる</t>
   </si>
@@ -1708,6 +1709,51 @@
     <rPh sb="3" eb="5">
       <t>カイフク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM素材</t>
+    <rPh sb="3" eb="5">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン選択</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトル中</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OtoLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Earliri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://lightcanvas.app.box.com/s/tjssmyldl5wqmi1a61y8gcj9r8gdj8c6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1995,7 +2041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2123,6 +2169,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16012,6 +16061,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7D438-400E-42E5-BE5A-7930654CD85F}">
+  <dimension ref="A2:P51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="16:16" x14ac:dyDescent="0.4">
+      <c r="P51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD741EE-11FB-4356-A0E9-E278EF0D2BD5}">
   <dimension ref="A1:I69"/>
@@ -16410,10 +16495,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E1F196-9326-49F0-B2D8-998D7AD6DACB}">
-  <dimension ref="A2:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510C02D5-9E21-4CB3-B3F2-3AED2C09FE30}">
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{EB9C1207-694D-4759-B990-E0F48C81965C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E1F196-9326-49F0-B2D8-998D7AD6DACB}">
+  <dimension ref="A2:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16478,74 +16601,78 @@
       </c>
       <c r="B11" s="38"/>
     </row>
-    <row r="16" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
-        <v>193</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="38"/>
+    </row>
+    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E19" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="37" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>199</v>
+      </c>
+      <c r="D20" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
         <v>133</v>
       </c>
+      <c r="D22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
         <v>133</v>
@@ -16553,7 +16680,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
         <v>133</v>
@@ -16561,6 +16688,30 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16571,7 +16722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C3CCD4-4262-4912-9632-1F9086FCB23F}">
   <dimension ref="A2:G39"/>
   <sheetViews>
@@ -16836,7 +16987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF554A40-543E-48B5-9DE6-05257CD1ECC5}">
   <dimension ref="A2:D51"/>
   <sheetViews>
@@ -17319,7 +17470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FBB15D-7D1E-4981-A647-E23BCCE0AE76}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17333,7 +17484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88110D7-F331-4811-A82A-C7AC33090918}">
   <dimension ref="A2:A26"/>
   <sheetViews>
@@ -17358,7 +17509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0372970-5ABB-4A52-87AA-61F0A635B536}">
   <dimension ref="A2:A74"/>
   <sheetViews>
@@ -17394,40 +17545,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7D438-400E-42E5-BE5A-7930654CD85F}">
-  <dimension ref="A2:P51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.4">
-      <c r="P51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>